--- a/output/PANTHER_cSNP_analysis.xlsx
+++ b/output/PANTHER_cSNP_analysis.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
-  <si>
-    <t>SNP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Substitution</t>
   </si>
@@ -28,7 +25,7 @@
     <t>PANTHER HMM Accession</t>
   </si>
   <si>
-    <t>Preservation Time</t>
+    <t>pPreservation Time</t>
   </si>
   <si>
     <t>Message</t>
@@ -37,10 +34,7 @@
     <t>Pdel</t>
   </si>
   <si>
-    <t>rs3792269</t>
-  </si>
-  <si>
-    <t>P200P</t>
+    <t>T504A</t>
   </si>
   <si>
     <t>CALPAIN</t>
@@ -52,58 +46,22 @@
     <t>probably benign</t>
   </si>
   <si>
-    <t>P44P</t>
-  </si>
-  <si>
-    <t>Not scored: Invalid substitution</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>rs7607759</t>
-  </si>
-  <si>
-    <t>T504A</t>
-  </si>
-  <si>
-    <t>rs3749166</t>
-  </si>
-  <si>
-    <t>A465A</t>
-  </si>
-  <si>
-    <t>A620A</t>
-  </si>
-  <si>
-    <t>A86A</t>
-  </si>
-  <si>
-    <t>rs2975766</t>
-  </si>
-  <si>
-    <t>I511V</t>
-  </si>
-  <si>
-    <t>I132V</t>
+    <t>A511V</t>
+  </si>
+  <si>
+    <t>possibly damaging</t>
+  </si>
+  <si>
+    <t>A132V</t>
   </si>
   <si>
     <t>I666V</t>
   </si>
   <si>
-    <t>P650P</t>
-  </si>
-  <si>
-    <t>rs3792268</t>
-  </si>
-  <si>
     <t>P200T</t>
   </si>
   <si>
-    <t>P44T</t>
-  </si>
-  <si>
-    <t>rs114120181</t>
+    <t>R44T</t>
   </si>
   <si>
     <t>V582A</t>
@@ -115,40 +73,16 @@
     <t>probably damaging</t>
   </si>
   <si>
-    <t>V48A</t>
-  </si>
-  <si>
-    <t>rs114535069</t>
+    <t>L34V</t>
+  </si>
+  <si>
+    <t>A477T</t>
+  </si>
+  <si>
+    <t>E460K</t>
   </si>
   <si>
     <t>L474M</t>
-  </si>
-  <si>
-    <t>rs138005500</t>
-  </si>
-  <si>
-    <t>L34V</t>
-  </si>
-  <si>
-    <t>rs148303768</t>
-  </si>
-  <si>
-    <t>A477T</t>
-  </si>
-  <si>
-    <t>rs150113284</t>
-  </si>
-  <si>
-    <t>E276E</t>
-  </si>
-  <si>
-    <t>possibly damaging</t>
-  </si>
-  <si>
-    <t>rs184439941</t>
-  </si>
-  <si>
-    <t>E460K</t>
   </si>
   <si>
     <t>PSEP (position-specific evolutionary preservation) measures the length of time (in millions of years) a position in current protein has been preserved by tracing back to its reconstructed direct ancestors. The longer a position has been preserved, the more likely that it will have a deleterious effect. We convert this to a probability of deleterious effect (Pdel) from results on the HumVar benchmark. We convert this Pdel to a qualitative prediction as follows: "probably damaging" (time &gt; 450my, corresponding to a false positive rate of ~0.2 as tested on HumVar), "possibly damaging" (450my &gt; time &gt; 200my, corresponding to a false positive rate of ~0.4) and "probably benign" (time &lt; 200my).</t>
@@ -775,8 +709,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1325,497 +1262,299 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5714285714286" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5714285714286" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.8571428571429" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.4285714285714" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.5714285714286" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D4" s="2">
+        <v>324</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>176</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="F5" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
         <v>176</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>176</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
+      <c r="F8" s="2">
+        <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>176</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>0.13</v>
+      <c r="F9" s="2">
+        <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>456</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F10" s="2">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>456</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>91</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
+      <c r="F12" s="2">
+        <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>176</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1">
-        <v>176</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
+      <c r="F13" s="2">
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>455</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.57</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1">
-        <v>176</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1">
-        <v>176</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1">
-        <v>456</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1">
-        <v>455</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1">
-        <v>456</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1">
-        <v>91</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1">
-        <v>361</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1">
-        <v>176</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
